--- a/src/main/resources/hr/personalPayrollSample.xlsx
+++ b/src/main/resources/hr/personalPayrollSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\laquna-api\src\main\resources\hr\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A292EFF2-8987-4B3B-B326-469464A1D8E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D90E4E-D074-457D-A0B1-9FBE6CBC05A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
   </bookViews>
   <sheets>
     <sheet name="연봉제" sheetId="1" r:id="rId1"/>
@@ -289,13 +289,13 @@
     <numFmt numFmtId="181" formatCode="##&quot;회&quot;"/>
     <numFmt numFmtId="182" formatCode="#,##0.00_ "/>
     <numFmt numFmtId="183" formatCode="0.00_ "/>
-    <numFmt numFmtId="186" formatCode="h:mm;@"/>
-    <numFmt numFmtId="187" formatCode="0.0&quot;회&quot;"/>
-    <numFmt numFmtId="188" formatCode="[h]:mm\ "/>
-    <numFmt numFmtId="189" formatCode="0.0&quot;시&quot;&quot;간&quot;"/>
-    <numFmt numFmtId="190" formatCode="[h]:mm"/>
-    <numFmt numFmtId="191" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="192" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="184" formatCode="h:mm;@"/>
+    <numFmt numFmtId="185" formatCode="0.0&quot;회&quot;"/>
+    <numFmt numFmtId="186" formatCode="[h]:mm\ "/>
+    <numFmt numFmtId="187" formatCode="0.0&quot;시&quot;&quot;간&quot;"/>
+    <numFmt numFmtId="188" formatCode="[h]:mm"/>
+    <numFmt numFmtId="189" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="190" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="15" x14ac:knownFonts="1">
     <font>
@@ -550,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,12 +566,198 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="184" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="185" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="11" fillId="0" borderId="3" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="188" fontId="13" fillId="6" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="190" fontId="13" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="11" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="189" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -581,253 +767,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="181" fontId="6" fillId="0" borderId="1" xfId="2" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="186" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="187" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="11" fillId="0" borderId="3" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="6" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="189" fontId="11" fillId="0" borderId="3" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="190" fontId="13" fillId="6" borderId="3" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="192" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="192" fontId="13" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="188" fontId="11" fillId="0" borderId="1" xfId="5" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="191" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1160,8 +1163,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A906234-CB89-4EDD-A2EC-0989FCB1326D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1217,11 +1220,11 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="72" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -1236,15 +1239,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="59" t="s">
+      <c r="M2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="61"/>
-      <c r="O2" s="59" t="s">
+      <c r="N2" s="74"/>
+      <c r="O2" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="60"/>
-      <c r="Q2" s="61"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="74"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -1265,10 +1268,10 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="5"/>
+      <c r="P3" s="68"/>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
@@ -1289,13 +1292,13 @@
       <c r="M4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="53">
-        <v>0</v>
-      </c>
-      <c r="O4" s="5" t="s">
+      <c r="N4" s="27">
+        <v>0</v>
+      </c>
+      <c r="O4" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="5"/>
+      <c r="P4" s="68"/>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
@@ -1319,9 +1322,9 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="10"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="6"/>
+      <c r="O5" s="76"/>
+      <c r="P5" s="77"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
@@ -1336,17 +1339,17 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="55" t="s">
+      <c r="M6" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="56">
-        <v>0</v>
-      </c>
-      <c r="O6" s="57" t="s">
+      <c r="N6" s="30">
+        <v>0</v>
+      </c>
+      <c r="O6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="57"/>
-      <c r="Q6" s="56">
+      <c r="P6" s="67"/>
+      <c r="Q6" s="30">
         <v>0</v>
       </c>
     </row>
@@ -1363,11 +1366,11 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="9"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="71"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -1385,14 +1388,14 @@
       <c r="M8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="N8" s="54">
-        <v>0</v>
-      </c>
-      <c r="O8" s="5" t="s">
+      <c r="N8" s="28">
+        <v>0</v>
+      </c>
+      <c r="O8" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="5"/>
-      <c r="Q8" s="54">
+      <c r="P8" s="68"/>
+      <c r="Q8" s="28">
         <v>0</v>
       </c>
     </row>
@@ -1415,10 +1418,10 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="5" t="s">
+      <c r="O9" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="P9" s="5"/>
+      <c r="P9" s="68"/>
       <c r="Q9" s="4">
         <v>0</v>
       </c>
@@ -1436,17 +1439,17 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="55" t="s">
+      <c r="M10" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="58">
-        <v>0</v>
-      </c>
-      <c r="O10" s="57" t="s">
+      <c r="N10" s="31">
+        <v>0</v>
+      </c>
+      <c r="O10" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="P10" s="57"/>
-      <c r="Q10" s="58">
+      <c r="P10" s="67"/>
+      <c r="Q10" s="31">
         <v>0</v>
       </c>
     </row>
@@ -1463,11 +1466,11 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="14"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
@@ -1482,11 +1485,11 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="17"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="61"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -1501,11 +1504,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="21"/>
-      <c r="Q13" s="17"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="64"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -1520,15 +1523,15 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25">
-        <v>14562431</v>
-      </c>
-      <c r="Q14" s="26"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="66"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -1543,17 +1546,17 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="27" t="s">
+      <c r="N15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="30"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="56"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -1568,21 +1571,21 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="29">
-        <v>5434783</v>
-      </c>
-      <c r="Q16" s="30"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="56"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="62"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1593,17 +1596,17 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="33" t="s">
+      <c r="M17" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="30"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="56"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -1618,15 +1621,15 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="27" t="s">
+      <c r="M18" s="60"/>
+      <c r="N18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="30"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="56"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
@@ -1641,17 +1644,17 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="N19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="29">
-        <v>836120</v>
-      </c>
-      <c r="Q19" s="30"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="56"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
@@ -1666,17 +1669,17 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="33" t="s">
+      <c r="M20" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="27" t="s">
+      <c r="N20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="35"/>
-      <c r="P20" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="30"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="56"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
@@ -1691,15 +1694,15 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="27" t="s">
+      <c r="M21" s="60"/>
+      <c r="N21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="35"/>
-      <c r="P21" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="30"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="56"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
@@ -1714,17 +1717,17 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="31" t="s">
+      <c r="M22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="32"/>
-      <c r="P22" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="30"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="56"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
@@ -1739,17 +1742,17 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="36" t="s">
+      <c r="N23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="51">
-        <v>0</v>
-      </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="30"/>
+      <c r="O23" s="25">
+        <v>0</v>
+      </c>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
@@ -1764,15 +1767,15 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="27" t="s">
+      <c r="M24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="39"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="52"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
@@ -1787,13 +1790,13 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="52"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -1808,19 +1811,19 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="27" t="s">
+      <c r="M26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="51">
-        <v>0</v>
-      </c>
-      <c r="P26" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="42"/>
+      <c r="O26" s="25">
+        <v>0</v>
+      </c>
+      <c r="P26" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="54"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
@@ -1835,19 +1838,19 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="40" t="s">
+      <c r="N27" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="51">
-        <v>0</v>
-      </c>
-      <c r="P27" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="42"/>
+      <c r="O27" s="25">
+        <v>0</v>
+      </c>
+      <c r="P27" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="54"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
@@ -1862,19 +1865,19 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="27" t="s">
+      <c r="M28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="52">
-        <v>0</v>
-      </c>
-      <c r="P28" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="30"/>
+      <c r="O28" s="26">
+        <v>0</v>
+      </c>
+      <c r="P28" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="56"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
@@ -1889,17 +1892,17 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="27" t="s">
+      <c r="M29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="40" t="s">
+      <c r="N29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="43">
-        <v>0</v>
-      </c>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="45"/>
+      <c r="O29" s="21">
+        <v>0</v>
+      </c>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
@@ -1914,15 +1917,15 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="27" t="s">
+      <c r="M30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="45"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
@@ -1937,11 +1940,11 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="45"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
@@ -1956,17 +1959,17 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="16" t="s">
+      <c r="M32" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="27" t="s">
+      <c r="N32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="30"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="56"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
@@ -1981,15 +1984,15 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="27" t="s">
+      <c r="M33" s="58"/>
+      <c r="N33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="30"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="56"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
@@ -2004,18 +2007,39 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="47" t="s">
+      <c r="M34" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="N34" s="47"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="49">
-        <v>20833334</v>
-      </c>
-      <c r="Q34" s="50"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="P25:Q25"/>
@@ -2032,27 +2056,6 @@
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O5:P5"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2063,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935BA9F2-AF5A-4D6B-9F9A-1DBFA46E00DE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2120,11 +2123,11 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="63" t="s">
+      <c r="O1" s="72" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
+      <c r="P1" s="72"/>
+      <c r="Q1" s="72"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -2139,17 +2142,17 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="64" t="s">
+      <c r="M2" s="83" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="77">
-        <v>0</v>
-      </c>
-      <c r="O2" s="73" t="s">
+      <c r="N2" s="37">
+        <v>0</v>
+      </c>
+      <c r="O2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="P2" s="73"/>
-      <c r="Q2" s="70">
+      <c r="P2" s="90"/>
+      <c r="Q2" s="35">
         <v>0</v>
       </c>
     </row>
@@ -2166,17 +2169,17 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="N3" s="78">
-        <v>0</v>
-      </c>
-      <c r="O3" s="73" t="s">
+      <c r="N3" s="38">
+        <v>0</v>
+      </c>
+      <c r="O3" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="70">
+      <c r="P3" s="90"/>
+      <c r="Q3" s="35">
         <v>0</v>
       </c>
     </row>
@@ -2193,17 +2196,17 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="64" t="s">
+      <c r="M4" s="83" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="79">
-        <v>0</v>
-      </c>
-      <c r="O4" s="76" t="s">
+      <c r="N4" s="39">
+        <v>0</v>
+      </c>
+      <c r="O4" s="78" t="s">
         <v>65</v>
       </c>
-      <c r="P4" s="76"/>
-      <c r="Q4" s="76"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="78"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
@@ -2218,18 +2221,18 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="N5" s="90">
-        <v>0</v>
-      </c>
-      <c r="O5" s="76" t="s">
+      <c r="N5" s="45">
+        <v>0</v>
+      </c>
+      <c r="O5" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="92">
-        <v>1</v>
+      <c r="P5" s="91"/>
+      <c r="Q5" s="46">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -2245,13 +2248,13 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="75"/>
-      <c r="N6" s="65">
-        <v>0</v>
-      </c>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="83">
+      <c r="M6" s="85"/>
+      <c r="N6" s="33">
+        <v>0</v>
+      </c>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
+      <c r="Q6" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2268,20 +2271,20 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="67" t="s">
+      <c r="M7" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="N7" s="80">
+      <c r="N7" s="40">
         <f>SUM(N5,N6)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="91" t="s">
+      <c r="O7" s="92" t="s">
         <v>67</v>
       </c>
-      <c r="P7" s="91"/>
-      <c r="Q7" s="84">
+      <c r="P7" s="92"/>
+      <c r="Q7" s="42">
         <f>SUM(Q5,Q6)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
@@ -2297,17 +2300,17 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="66" t="s">
+      <c r="M8" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="N8" s="68">
-        <v>0</v>
-      </c>
-      <c r="O8" s="85" t="s">
+      <c r="N8" s="34">
+        <v>0</v>
+      </c>
+      <c r="O8" s="93" t="s">
         <v>66</v>
       </c>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="92">
+      <c r="P8" s="93"/>
+      <c r="Q8" s="46">
         <v>0</v>
       </c>
     </row>
@@ -2324,17 +2327,17 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="69" t="s">
+      <c r="M9" s="88" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="72">
-        <v>0</v>
-      </c>
-      <c r="O9" s="76" t="s">
+      <c r="N9" s="36">
+        <v>0</v>
+      </c>
+      <c r="O9" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="70">
+      <c r="P9" s="91"/>
+      <c r="Q9" s="35">
         <v>0</v>
       </c>
     </row>
@@ -2351,17 +2354,17 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="69" t="s">
+      <c r="M10" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="N10" s="72">
-        <v>0</v>
-      </c>
-      <c r="O10" s="76" t="s">
+      <c r="N10" s="36">
+        <v>0</v>
+      </c>
+      <c r="O10" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="86">
+      <c r="P10" s="91"/>
+      <c r="Q10" s="43">
         <v>0</v>
       </c>
     </row>
@@ -2378,17 +2381,17 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="71" t="s">
+      <c r="M11" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="N11" s="72">
-        <v>0</v>
-      </c>
-      <c r="O11" s="76" t="s">
+      <c r="N11" s="36">
+        <v>0</v>
+      </c>
+      <c r="O11" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="87"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="44"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A12" s="1"/>
@@ -2403,11 +2406,11 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="81"/>
-      <c r="O12" s="88"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="17"/>
+      <c r="M12" s="49"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
@@ -2422,11 +2425,11 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="18"/>
+      <c r="M13" s="63"/>
       <c r="N13" s="82"/>
-      <c r="O13" s="88"/>
-      <c r="P13" s="89"/>
-      <c r="Q13" s="17"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="81"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
@@ -2441,15 +2444,15 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="22" t="s">
+      <c r="M14" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
-      <c r="P14" s="25">
-        <v>14562431</v>
-      </c>
-      <c r="Q14" s="26"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="65">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="66"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -2464,17 +2467,17 @@
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="27" t="s">
+      <c r="M15" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="N15" s="27" t="s">
+      <c r="N15" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="O15" s="28"/>
-      <c r="P15" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="30"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="56"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -2489,21 +2492,21 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="31" t="s">
+      <c r="M16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N16" s="31" t="s">
+      <c r="N16" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="29">
-        <v>5434783</v>
-      </c>
-      <c r="Q16" s="30"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="56"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
-      <c r="B17" s="62"/>
+      <c r="B17" s="32"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2514,17 +2517,17 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="33" t="s">
+      <c r="M17" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="N17" s="27" t="s">
+      <c r="N17" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O17" s="28"/>
-      <c r="P17" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="30"/>
+      <c r="O17" s="12"/>
+      <c r="P17" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="56"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -2539,15 +2542,15 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="27" t="s">
+      <c r="M18" s="60"/>
+      <c r="N18" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="O18" s="28"/>
-      <c r="P18" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="30"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="56"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
@@ -2562,17 +2565,17 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="31" t="s">
+      <c r="M19" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="N19" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O19" s="32"/>
-      <c r="P19" s="29">
-        <v>836120</v>
-      </c>
-      <c r="Q19" s="30"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="56"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
@@ -2587,17 +2590,17 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="33" t="s">
+      <c r="M20" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="N20" s="27" t="s">
+      <c r="N20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="O20" s="35"/>
-      <c r="P20" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="30"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="56"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
@@ -2612,15 +2615,15 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="27" t="s">
+      <c r="M21" s="60"/>
+      <c r="N21" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="O21" s="35"/>
-      <c r="P21" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="30"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="56"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
@@ -2635,17 +2638,17 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="31" t="s">
+      <c r="M22" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="O22" s="32"/>
-      <c r="P22" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="30"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="56"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
@@ -2660,17 +2663,17 @@
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="27" t="s">
+      <c r="M23" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N23" s="36" t="s">
+      <c r="N23" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="O23" s="51">
-        <v>0</v>
-      </c>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="30"/>
+      <c r="O23" s="25">
+        <v>0</v>
+      </c>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="56"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
@@ -2685,15 +2688,15 @@
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="27" t="s">
+      <c r="M24" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N24" s="36"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="39"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="51">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="52"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
@@ -2708,13 +2711,13 @@
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="27" t="s">
+      <c r="M25" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N25" s="27"/>
-      <c r="O25" s="37"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="39"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="52"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -2729,19 +2732,19 @@
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="27" t="s">
+      <c r="M26" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N26" s="40" t="s">
+      <c r="N26" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O26" s="51">
-        <v>0</v>
-      </c>
-      <c r="P26" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="42"/>
+      <c r="O26" s="25">
+        <v>0</v>
+      </c>
+      <c r="P26" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="54"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
@@ -2756,19 +2759,19 @@
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="27" t="s">
+      <c r="M27" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N27" s="40" t="s">
+      <c r="N27" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="51">
-        <v>0</v>
-      </c>
-      <c r="P27" s="41">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="42"/>
+      <c r="O27" s="25">
+        <v>0</v>
+      </c>
+      <c r="P27" s="53">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="54"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
@@ -2783,19 +2786,19 @@
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="27" t="s">
+      <c r="M28" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="N28" s="40" t="s">
+      <c r="N28" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="52">
-        <v>0</v>
-      </c>
-      <c r="P28" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="30"/>
+      <c r="O28" s="26">
+        <v>0</v>
+      </c>
+      <c r="P28" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="56"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
@@ -2810,17 +2813,17 @@
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="27" t="s">
+      <c r="M29" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="N29" s="40" t="s">
+      <c r="N29" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="43">
-        <v>0</v>
-      </c>
-      <c r="P29" s="44"/>
-      <c r="Q29" s="45"/>
+      <c r="O29" s="21">
+        <v>0</v>
+      </c>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="14"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A30" s="1"/>
@@ -2835,15 +2838,15 @@
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="27" t="s">
+      <c r="M30" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="N30" s="27"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="44">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="45"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="14"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A31" s="1"/>
@@ -2858,11 +2861,11 @@
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="27"/>
-      <c r="N31" s="40"/>
-      <c r="O31" s="43"/>
-      <c r="P31" s="44"/>
-      <c r="Q31" s="45"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="20"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="14"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A32" s="1"/>
@@ -2877,17 +2880,17 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="16" t="s">
+      <c r="M32" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="27" t="s">
+      <c r="N32" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="O32" s="28"/>
-      <c r="P32" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="30"/>
+      <c r="O32" s="12"/>
+      <c r="P32" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="56"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
@@ -2902,15 +2905,15 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="27" t="s">
+      <c r="M33" s="58"/>
+      <c r="N33" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="O33" s="28"/>
-      <c r="P33" s="29">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="30"/>
+      <c r="O33" s="12"/>
+      <c r="P33" s="55">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="56"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
@@ -2925,18 +2928,40 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="47" t="s">
+      <c r="M34" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="N34" s="47"/>
-      <c r="O34" s="48"/>
-      <c r="P34" s="49">
-        <v>20833334</v>
-      </c>
-      <c r="Q34" s="50"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -2949,31 +2974,9 @@
     <mergeCell ref="P26:Q26"/>
     <mergeCell ref="P27:Q27"/>
     <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="O1:Q1"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N5">

--- a/src/main/resources/hr/personalPayrollSample.xlsx
+++ b/src/main/resources/hr/personalPayrollSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D90E4E-D074-457D-A0B1-9FBE6CBC05A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4993B6F-BF3C-4658-8685-3E2EB632FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
   </bookViews>
   <sheets>
     <sheet name="연봉제" sheetId="1" r:id="rId1"/>
@@ -91,12 +91,6 @@
     <t>철야익일 4.5H</t>
   </si>
   <si>
-    <t>토요 4H↑</t>
-  </si>
-  <si>
-    <t>일요 4H↑</t>
-  </si>
-  <si>
     <t>토요 8H</t>
   </si>
   <si>
@@ -272,6 +266,14 @@
   </si>
   <si>
     <t>누락분</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>토요 4H</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>일요 4H</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -692,16 +694,100 @@
     <xf numFmtId="189" fontId="11" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -716,121 +802,37 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,8 +1165,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A906234-CB89-4EDD-A2EC-0989FCB1326D}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1220,11 +1222,11 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="72" t="s">
+      <c r="O1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -1239,15 +1241,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="73" t="s">
+      <c r="M2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="74"/>
-      <c r="O2" s="73" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="75"/>
-      <c r="Q2" s="74"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
@@ -1268,10 +1270,10 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="O3" s="68" t="s">
+      <c r="O3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="68"/>
+      <c r="P3" s="58"/>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
@@ -1295,10 +1297,10 @@
       <c r="N4" s="27">
         <v>0</v>
       </c>
-      <c r="O4" s="68" t="s">
+      <c r="O4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="68"/>
+      <c r="P4" s="58"/>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
@@ -1322,8 +1324,8 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="76"/>
-      <c r="P5" s="77"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="53"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.4">
@@ -1345,10 +1347,10 @@
       <c r="N6" s="30">
         <v>0</v>
       </c>
-      <c r="O6" s="67" t="s">
+      <c r="O6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="67"/>
+      <c r="P6" s="59"/>
       <c r="Q6" s="30">
         <v>0</v>
       </c>
@@ -1366,11 +1368,11 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="71"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="62"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A8" s="1"/>
@@ -1386,15 +1388,15 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="3" t="s">
-        <v>21</v>
+        <v>67</v>
       </c>
       <c r="N8" s="28">
         <v>0</v>
       </c>
-      <c r="O8" s="68" t="s">
-        <v>22</v>
-      </c>
-      <c r="P8" s="68"/>
+      <c r="O8" s="58" t="s">
+        <v>68</v>
+      </c>
+      <c r="P8" s="58"/>
       <c r="Q8" s="28">
         <v>0</v>
       </c>
@@ -1413,15 +1415,15 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="68" t="s">
-        <v>24</v>
-      </c>
-      <c r="P9" s="68"/>
+      <c r="O9" s="58" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="58"/>
       <c r="Q9" s="4">
         <v>0</v>
       </c>
@@ -1440,15 +1442,15 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="29" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="N10" s="31">
         <v>0</v>
       </c>
-      <c r="O10" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="P10" s="67"/>
+      <c r="O10" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="P10" s="59"/>
       <c r="Q10" s="31">
         <v>0</v>
       </c>
@@ -1485,10 +1487,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="50"/>
-      <c r="O12" s="61"/>
-      <c r="P12" s="57"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="65"/>
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -1504,10 +1506,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="64"/>
-      <c r="O13" s="62"/>
-      <c r="P13" s="58"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="66"/>
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
@@ -1523,15 +1525,15 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="50"/>
+      <c r="M14" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="70"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="66"/>
+      <c r="P14" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="72"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -1547,16 +1549,16 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="56"/>
+      <c r="P15" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="74"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -1572,16 +1574,16 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="56"/>
+      <c r="P16" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="74"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
@@ -1596,17 +1598,17 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="59" t="s">
-        <v>32</v>
+      <c r="M17" s="75" t="s">
+        <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="56"/>
+      <c r="P17" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="74"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -1621,15 +1623,15 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="60"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O18" s="12"/>
-      <c r="P18" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="56"/>
+      <c r="P18" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="74"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
@@ -1645,16 +1647,16 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="P19" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="56"/>
+      <c r="P19" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="74"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
@@ -1669,17 +1671,17 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="59" t="s">
-        <v>36</v>
+      <c r="M20" s="75" t="s">
+        <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O20" s="17"/>
-      <c r="P20" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="56"/>
+      <c r="P20" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="74"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
@@ -1694,15 +1696,15 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="60"/>
+      <c r="M21" s="76"/>
       <c r="N21" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O21" s="17"/>
-      <c r="P21" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="56"/>
+      <c r="P21" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="74"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
@@ -1718,16 +1720,16 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O22" s="16"/>
-      <c r="P22" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="56"/>
+      <c r="P22" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="74"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
@@ -1743,16 +1745,16 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O23" s="25">
         <v>0</v>
       </c>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="74"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
@@ -1768,14 +1770,14 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="52"/>
+      <c r="P24" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="80"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
@@ -1791,12 +1793,12 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="52"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="80"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -1812,18 +1814,18 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O26" s="25">
         <v>0</v>
       </c>
-      <c r="P26" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="54"/>
+      <c r="P26" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="82"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
@@ -1839,18 +1841,18 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O27" s="25">
         <v>0</v>
       </c>
-      <c r="P27" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="54"/>
+      <c r="P27" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="82"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
@@ -1866,18 +1868,18 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O28" s="26">
         <v>0</v>
       </c>
-      <c r="P28" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="56"/>
+      <c r="P28" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="74"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
@@ -1893,10 +1895,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O29" s="21">
         <v>0</v>
@@ -1918,7 +1920,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="22"/>
@@ -1959,17 +1961,17 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="57" t="s">
-        <v>49</v>
+      <c r="M32" s="65" t="s">
+        <v>47</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="56"/>
+      <c r="P32" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="74"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
@@ -1984,15 +1986,15 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="58"/>
+      <c r="M33" s="66"/>
       <c r="N33" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="56"/>
+      <c r="P33" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="74"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
@@ -2008,38 +2010,17 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="48"/>
+      <c r="P34" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="P25:Q25"/>
@@ -2056,6 +2037,27 @@
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2066,8 +2068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935BA9F2-AF5A-4D6B-9F9A-1DBFA46E00DE}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2123,11 +2125,11 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="72" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
+      <c r="O1" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A2" s="1"/>
@@ -2142,16 +2144,16 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="83" t="s">
-        <v>54</v>
+      <c r="M2" s="47" t="s">
+        <v>52</v>
       </c>
       <c r="N2" s="37">
         <v>0</v>
       </c>
-      <c r="O2" s="90" t="s">
-        <v>63</v>
-      </c>
-      <c r="P2" s="90"/>
+      <c r="O2" s="89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P2" s="89"/>
       <c r="Q2" s="35">
         <v>0</v>
       </c>
@@ -2169,16 +2171,16 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="83" t="s">
-        <v>55</v>
+      <c r="M3" s="47" t="s">
+        <v>53</v>
       </c>
       <c r="N3" s="38">
         <v>0</v>
       </c>
-      <c r="O3" s="90" t="s">
-        <v>64</v>
-      </c>
-      <c r="P3" s="90"/>
+      <c r="O3" s="89" t="s">
+        <v>62</v>
+      </c>
+      <c r="P3" s="89"/>
       <c r="Q3" s="35">
         <v>0</v>
       </c>
@@ -2196,17 +2198,17 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="83" t="s">
-        <v>56</v>
+      <c r="M4" s="47" t="s">
+        <v>54</v>
       </c>
       <c r="N4" s="39">
         <v>0</v>
       </c>
-      <c r="O4" s="78" t="s">
-        <v>65</v>
-      </c>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="78"/>
+      <c r="O4" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
@@ -2221,14 +2223,14 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="84" t="s">
-        <v>57</v>
+      <c r="M5" s="87" t="s">
+        <v>55</v>
       </c>
       <c r="N5" s="45">
         <v>0</v>
       </c>
       <c r="O5" s="91" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P5" s="91"/>
       <c r="Q5" s="46">
@@ -2248,7 +2250,7 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="85"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="33">
         <v>0</v>
       </c>
@@ -2271,15 +2273,15 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="86" t="s">
-        <v>58</v>
+      <c r="M7" s="49" t="s">
+        <v>56</v>
       </c>
       <c r="N7" s="40">
         <f>SUM(N5,N6)</f>
         <v>0</v>
       </c>
       <c r="O7" s="92" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P7" s="92"/>
       <c r="Q7" s="42">
@@ -2300,14 +2302,14 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="87" t="s">
-        <v>59</v>
+      <c r="M8" s="48" t="s">
+        <v>57</v>
       </c>
       <c r="N8" s="34">
         <v>0</v>
       </c>
       <c r="O8" s="93" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P8" s="93"/>
       <c r="Q8" s="46">
@@ -2327,8 +2329,8 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="88" t="s">
-        <v>60</v>
+      <c r="M9" s="50" t="s">
+        <v>58</v>
       </c>
       <c r="N9" s="36">
         <v>0</v>
@@ -2354,8 +2356,8 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="88" t="s">
-        <v>61</v>
+      <c r="M10" s="50" t="s">
+        <v>59</v>
       </c>
       <c r="N10" s="36">
         <v>0</v>
@@ -2381,14 +2383,14 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="89" t="s">
-        <v>62</v>
+      <c r="M11" s="51" t="s">
+        <v>60</v>
       </c>
       <c r="N11" s="36">
         <v>0</v>
       </c>
       <c r="O11" s="91" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P11" s="91"/>
       <c r="Q11" s="44"/>
@@ -2406,10 +2408,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="49"/>
-      <c r="N12" s="79"/>
-      <c r="O12" s="80"/>
-      <c r="P12" s="81"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="85"/>
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.4">
@@ -2425,10 +2427,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="82"/>
-      <c r="O13" s="80"/>
-      <c r="P13" s="81"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="85"/>
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.4">
@@ -2444,15 +2446,15 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14" s="50"/>
+      <c r="M14" s="69" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14" s="70"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="65">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="66"/>
+      <c r="P14" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="72"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A15" s="1"/>
@@ -2468,16 +2470,16 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N15" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="56"/>
+      <c r="P15" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="74"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A16" s="1"/>
@@ -2493,16 +2495,16 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="N16" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="56"/>
+      <c r="P16" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="74"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A17" s="1"/>
@@ -2517,17 +2519,17 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="59" t="s">
-        <v>32</v>
+      <c r="M17" s="75" t="s">
+        <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="56"/>
+      <c r="P17" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="74"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A18" s="1"/>
@@ -2542,15 +2544,15 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="60"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="O18" s="12"/>
-      <c r="P18" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="56"/>
+      <c r="P18" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="74"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A19" s="1"/>
@@ -2566,16 +2568,16 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N19" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="P19" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="56"/>
+      <c r="P19" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="74"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A20" s="1"/>
@@ -2590,17 +2592,17 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="59" t="s">
-        <v>36</v>
+      <c r="M20" s="75" t="s">
+        <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O20" s="17"/>
-      <c r="P20" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="56"/>
+      <c r="P20" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="74"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A21" s="1"/>
@@ -2615,15 +2617,15 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="60"/>
+      <c r="M21" s="76"/>
       <c r="N21" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="O21" s="17"/>
-      <c r="P21" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="56"/>
+      <c r="P21" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="74"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="1"/>
@@ -2639,16 +2641,16 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="N22" s="15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O22" s="16"/>
-      <c r="P22" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="56"/>
+      <c r="P22" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="74"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
@@ -2664,16 +2666,16 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N23" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O23" s="25">
         <v>0</v>
       </c>
-      <c r="P23" s="55"/>
-      <c r="Q23" s="56"/>
+      <c r="P23" s="73"/>
+      <c r="Q23" s="74"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
@@ -2689,14 +2691,14 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="51">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="52"/>
+      <c r="P24" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="80"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A25" s="1"/>
@@ -2712,12 +2714,12 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="52"/>
+      <c r="P25" s="79"/>
+      <c r="Q25" s="80"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="1"/>
@@ -2733,18 +2735,18 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="N26" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O26" s="25">
         <v>0</v>
       </c>
-      <c r="P26" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="54"/>
+      <c r="P26" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="82"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="1"/>
@@ -2760,18 +2762,18 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="N27" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O27" s="25">
         <v>0</v>
       </c>
-      <c r="P27" s="53">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="54"/>
+      <c r="P27" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="82"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A28" s="1"/>
@@ -2787,18 +2789,18 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N28" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O28" s="26">
         <v>0</v>
       </c>
-      <c r="P28" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="56"/>
+      <c r="P28" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="74"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A29" s="1"/>
@@ -2814,10 +2816,10 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N29" s="20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="O29" s="21">
         <v>0</v>
@@ -2839,7 +2841,7 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="22"/>
@@ -2880,17 +2882,17 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="57" t="s">
-        <v>49</v>
+      <c r="M32" s="65" t="s">
+        <v>47</v>
       </c>
       <c r="N32" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="56"/>
+      <c r="P32" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="74"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A33" s="1"/>
@@ -2905,15 +2907,15 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="58"/>
+      <c r="M33" s="66"/>
       <c r="N33" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="55">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="56"/>
+      <c r="P33" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="74"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A34" s="1"/>
@@ -2929,39 +2931,17 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="48"/>
+      <c r="P34" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -2977,6 +2957,28 @@
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N5">

--- a/src/main/resources/hr/personalPayrollSample.xlsx
+++ b/src/main/resources/hr/personalPayrollSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4993B6F-BF3C-4658-8685-3E2EB632FB98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7EBBA9-4CB3-4030-8955-2121592E466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
+    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
   </bookViews>
   <sheets>
     <sheet name="연봉제" sheetId="1" r:id="rId1"/>
@@ -709,6 +709,81 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -727,80 +802,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -818,21 +833,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1163,25 +1163,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A906234-CB89-4EDD-A2EC-0989FCB1326D}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
-    <col min="3" max="4" width="17.3984375" customWidth="1"/>
-    <col min="5" max="6" width="11.09765625" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" customWidth="1"/>
-    <col min="8" max="12" width="10.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,13 +1225,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="79" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1241,17 +1244,17 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55" t="s">
+      <c r="N2" s="81"/>
+      <c r="O2" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="56"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P2" s="82"/>
+      <c r="Q2" s="81"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1270,15 +1273,15 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="58"/>
+      <c r="P3" s="73"/>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1297,15 +1300,15 @@
       <c r="N4" s="27">
         <v>0</v>
       </c>
-      <c r="O4" s="58" t="s">
+      <c r="O4" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="58"/>
+      <c r="P4" s="73"/>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1324,11 +1327,11 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="52"/>
-      <c r="P5" s="53"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="78"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1347,15 +1350,15 @@
       <c r="N6" s="30">
         <v>0</v>
       </c>
-      <c r="O6" s="59" t="s">
+      <c r="O6" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="59"/>
+      <c r="P6" s="72"/>
       <c r="Q6" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1368,13 +1371,13 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="M7" s="74"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="76"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1393,15 +1396,15 @@
       <c r="N8" s="28">
         <v>0</v>
       </c>
-      <c r="O8" s="58" t="s">
+      <c r="O8" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="58"/>
+      <c r="P8" s="73"/>
       <c r="Q8" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1420,15 +1423,15 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="58"/>
+      <c r="P9" s="73"/>
       <c r="Q9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1447,15 +1450,15 @@
       <c r="N10" s="31">
         <v>0</v>
       </c>
-      <c r="O10" s="59" t="s">
+      <c r="O10" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="59"/>
+      <c r="P10" s="72"/>
       <c r="Q10" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1474,7 +1477,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1487,13 +1490,13 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="65"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="62"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1506,13 +1509,13 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="66"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="69"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="63"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1525,17 +1528,17 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="69" t="s">
+      <c r="M14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="70"/>
+      <c r="N14" s="55"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="72"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P14" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="71"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1555,12 +1558,12 @@
         <v>27</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="74"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P15" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="61"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1580,12 +1583,12 @@
         <v>29</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="74"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P16" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="61"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="32"/>
       <c r="C17" s="1"/>
@@ -1598,19 +1601,19 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="64" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="74"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P17" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="61"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1623,17 +1626,17 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="76"/>
+      <c r="M18" s="65"/>
       <c r="N18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="12"/>
-      <c r="P18" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="74"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P18" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="61"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1653,12 +1656,12 @@
         <v>29</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="P19" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="74"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P19" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="61"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1671,19 +1674,19 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="64" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O20" s="17"/>
-      <c r="P20" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="74"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P20" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="61"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1696,17 +1699,17 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="76"/>
+      <c r="M21" s="65"/>
       <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="17"/>
-      <c r="P21" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="74"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P21" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="61"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1726,12 +1729,12 @@
         <v>29</v>
       </c>
       <c r="O22" s="16"/>
-      <c r="P22" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="74"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P22" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="61"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1753,10 +1756,10 @@
       <c r="O23" s="25">
         <v>0</v>
       </c>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="74"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1774,12 +1777,12 @@
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="80"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P24" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="57"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1797,10 +1800,10 @@
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="80"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1822,12 +1825,12 @@
       <c r="O26" s="25">
         <v>0</v>
       </c>
-      <c r="P26" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="82"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P26" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="59"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1849,12 +1852,12 @@
       <c r="O27" s="25">
         <v>0</v>
       </c>
-      <c r="P27" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="82"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P27" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="59"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1876,12 +1879,12 @@
       <c r="O28" s="26">
         <v>0</v>
       </c>
-      <c r="P28" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="74"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P28" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="61"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1906,7 +1909,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1929,7 +1932,7 @@
       </c>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1948,7 +1951,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1961,19 +1964,19 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="62" t="s">
         <v>47</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="74"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P32" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="61"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1986,17 +1989,17 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="66"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="11" t="s">
         <v>49</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="74"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P33" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="61"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2014,13 +2017,34 @@
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="78"/>
+      <c r="P34" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="P25:Q25"/>
@@ -2037,54 +2061,37 @@
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{935BA9F2-AF5A-4D6B-9F9A-1DBFA46E00DE}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" customWidth="1"/>
-    <col min="2" max="2" width="11.09765625" customWidth="1"/>
-    <col min="3" max="4" width="17.3984375" customWidth="1"/>
-    <col min="5" max="6" width="11.09765625" customWidth="1"/>
-    <col min="7" max="7" width="13.09765625" customWidth="1"/>
-    <col min="8" max="12" width="10.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="11.125" customWidth="1"/>
+    <col min="3" max="4" width="17.375" customWidth="1"/>
+    <col min="5" max="6" width="11.125" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2125,13 +2132,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="79" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2150,15 +2157,15 @@
       <c r="N2" s="37">
         <v>0</v>
       </c>
-      <c r="O2" s="89" t="s">
+      <c r="O2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="89"/>
+      <c r="P2" s="83"/>
       <c r="Q2" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2177,15 +2184,15 @@
       <c r="N3" s="38">
         <v>0</v>
       </c>
-      <c r="O3" s="89" t="s">
+      <c r="O3" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="89"/>
+      <c r="P3" s="83"/>
       <c r="Q3" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2204,13 +2211,13 @@
       <c r="N4" s="39">
         <v>0</v>
       </c>
-      <c r="O4" s="90" t="s">
+      <c r="O4" s="84" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2223,21 +2230,21 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="92" t="s">
         <v>55</v>
       </c>
       <c r="N5" s="45">
         <v>0</v>
       </c>
-      <c r="O5" s="91" t="s">
+      <c r="O5" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="91"/>
+      <c r="P5" s="85"/>
       <c r="Q5" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2250,17 +2257,17 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="88"/>
+      <c r="M6" s="93"/>
       <c r="N6" s="33">
         <v>0</v>
       </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
       <c r="Q6" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2280,16 +2287,16 @@
         <f>SUM(N5,N6)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="92" t="s">
+      <c r="O7" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="92"/>
+      <c r="P7" s="86"/>
       <c r="Q7" s="42">
         <f>SUM(Q5,Q6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2308,15 +2315,15 @@
       <c r="N8" s="34">
         <v>0</v>
       </c>
-      <c r="O8" s="93" t="s">
+      <c r="O8" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="93"/>
+      <c r="P8" s="87"/>
       <c r="Q8" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2335,15 +2342,15 @@
       <c r="N9" s="36">
         <v>0</v>
       </c>
-      <c r="O9" s="91" t="s">
+      <c r="O9" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="91"/>
+      <c r="P9" s="85"/>
       <c r="Q9" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2362,15 +2369,15 @@
       <c r="N10" s="36">
         <v>0</v>
       </c>
-      <c r="O10" s="91" t="s">
+      <c r="O10" s="85" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="91"/>
+      <c r="P10" s="85"/>
       <c r="Q10" s="43">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2389,13 +2396,13 @@
       <c r="N11" s="36">
         <v>0</v>
       </c>
-      <c r="O11" s="91" t="s">
+      <c r="O11" s="85" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="91"/>
+      <c r="P11" s="85"/>
       <c r="Q11" s="44"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2408,13 +2415,13 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="85"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="89"/>
+      <c r="P12" s="90"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2427,13 +2434,13 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="85"/>
+      <c r="M13" s="68"/>
+      <c r="N13" s="91"/>
+      <c r="O13" s="89"/>
+      <c r="P13" s="90"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2446,17 +2453,17 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="69" t="s">
+      <c r="M14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="70"/>
+      <c r="N14" s="55"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="72"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P14" s="70">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="71"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2476,12 +2483,12 @@
         <v>27</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="74"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P15" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="61"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2501,12 +2508,12 @@
         <v>29</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="74"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P16" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="61"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="32"/>
       <c r="C17" s="1"/>
@@ -2519,19 +2526,19 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="64" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="74"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P17" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="61"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2544,17 +2551,17 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="76"/>
+      <c r="M18" s="65"/>
       <c r="N18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="12"/>
-      <c r="P18" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="74"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P18" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="61"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2574,12 +2581,12 @@
         <v>29</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="P19" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="74"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P19" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="61"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2592,19 +2599,19 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="64" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O20" s="17"/>
-      <c r="P20" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="74"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P20" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="61"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2617,17 +2624,17 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="76"/>
+      <c r="M21" s="65"/>
       <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="17"/>
-      <c r="P21" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="74"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P21" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="61"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2647,12 +2654,12 @@
         <v>29</v>
       </c>
       <c r="O22" s="16"/>
-      <c r="P22" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="74"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P22" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="61"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2674,10 +2681,10 @@
       <c r="O23" s="25">
         <v>0</v>
       </c>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="74"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P23" s="60"/>
+      <c r="Q23" s="61"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2695,12 +2702,12 @@
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="80"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P24" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="57"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2718,10 +2725,10 @@
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="80"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2743,12 +2750,12 @@
       <c r="O26" s="25">
         <v>0</v>
       </c>
-      <c r="P26" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="82"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P26" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="59"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2770,12 +2777,12 @@
       <c r="O27" s="25">
         <v>0</v>
       </c>
-      <c r="P27" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="82"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P27" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="59"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2797,12 +2804,12 @@
       <c r="O28" s="26">
         <v>0</v>
       </c>
-      <c r="P28" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="74"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P28" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="61"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2827,7 +2834,7 @@
       <c r="P29" s="13"/>
       <c r="Q29" s="14"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2850,7 +2857,7 @@
       </c>
       <c r="Q30" s="14"/>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2869,7 +2876,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2882,19 +2889,19 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="62" t="s">
         <v>47</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="74"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P32" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="61"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2907,17 +2914,17 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="66"/>
+      <c r="M33" s="63"/>
       <c r="N33" s="11" t="s">
         <v>49</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="74"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.4">
+      <c r="P33" s="60">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="61"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2935,13 +2942,35 @@
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="78"/>
+      <c r="P34" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -2957,28 +2986,6 @@
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N5">
@@ -2987,5 +2994,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/hr/personalPayrollSample.xlsx
+++ b/src/main/resources/hr/personalPayrollSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7EBBA9-4CB3-4030-8955-2121592E466C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3501EAA3-4667-441C-842D-E14AD492CD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="0" windowWidth="28770" windowHeight="15450" activeTab="1" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
   </bookViews>
   <sheets>
     <sheet name="연봉제" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <numFmt numFmtId="189" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="190" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,16 +709,85 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -733,74 +802,23 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -815,24 +833,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1169,10 +1169,10 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
@@ -1184,7 +1184,7 @@
     <col min="15" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,13 +1225,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="79" t="s">
+      <c r="O1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1244,17 +1244,17 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="80" t="s">
+      <c r="M2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="81"/>
-      <c r="O2" s="80" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="81"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56"/>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1273,15 +1273,15 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="O3" s="73" t="s">
+      <c r="O3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="73"/>
+      <c r="P3" s="58"/>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1300,15 +1300,15 @@
       <c r="N4" s="27">
         <v>0</v>
       </c>
-      <c r="O4" s="73" t="s">
+      <c r="O4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="73"/>
+      <c r="P4" s="58"/>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1327,11 +1327,11 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="77"/>
-      <c r="P5" s="78"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="53"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1350,15 +1350,15 @@
       <c r="N6" s="30">
         <v>0</v>
       </c>
-      <c r="O6" s="72" t="s">
+      <c r="O6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="72"/>
+      <c r="P6" s="59"/>
       <c r="Q6" s="30">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1371,13 +1371,13 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="76"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="M7" s="60"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="62"/>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1396,15 +1396,15 @@
       <c r="N8" s="28">
         <v>0</v>
       </c>
-      <c r="O8" s="73" t="s">
+      <c r="O8" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="73"/>
+      <c r="P8" s="58"/>
       <c r="Q8" s="28">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1423,15 +1423,15 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="73" t="s">
+      <c r="O9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="73"/>
+      <c r="P9" s="58"/>
       <c r="Q9" s="4">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1450,15 +1450,15 @@
       <c r="N10" s="31">
         <v>0</v>
       </c>
-      <c r="O10" s="72" t="s">
+      <c r="O10" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="72"/>
+      <c r="P10" s="59"/>
       <c r="Q10" s="31">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1477,7 +1477,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1490,13 +1490,13 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="66"/>
-      <c r="P12" s="62"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="65"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1509,13 +1509,13 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="63"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="66"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1528,17 +1528,17 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="54" t="s">
+      <c r="M14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="55"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="71"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P14" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="72"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1558,12 +1558,12 @@
         <v>27</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="61"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P15" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="74"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1583,12 +1583,12 @@
         <v>29</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="61"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P16" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="74"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1"/>
       <c r="B17" s="32"/>
       <c r="C17" s="1"/>
@@ -1601,19 +1601,19 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="64" t="s">
+      <c r="M17" s="75" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="61"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P17" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="74"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1626,17 +1626,17 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="65"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="12"/>
-      <c r="P18" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="61"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P18" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="74"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1656,12 +1656,12 @@
         <v>29</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="P19" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="61"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P19" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="74"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1674,19 +1674,19 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="64" t="s">
+      <c r="M20" s="75" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O20" s="17"/>
-      <c r="P20" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="61"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P20" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="74"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1699,17 +1699,17 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="65"/>
+      <c r="M21" s="76"/>
       <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="17"/>
-      <c r="P21" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="61"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P21" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="74"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1729,12 +1729,12 @@
         <v>29</v>
       </c>
       <c r="O22" s="16"/>
-      <c r="P22" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="61"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P22" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="74"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1756,10 +1756,10 @@
       <c r="O23" s="25">
         <v>0</v>
       </c>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="61"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P23" s="73"/>
+      <c r="Q23" s="74"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1777,12 +1777,12 @@
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="57"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P24" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="80"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1800,10 +1800,10 @@
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P25" s="79"/>
+      <c r="Q25" s="80"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1825,12 +1825,12 @@
       <c r="O26" s="25">
         <v>0</v>
       </c>
-      <c r="P26" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="59"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P26" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="82"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1852,12 +1852,12 @@
       <c r="O27" s="25">
         <v>0</v>
       </c>
-      <c r="P27" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="59"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P27" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="82"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1879,12 +1879,12 @@
       <c r="O28" s="26">
         <v>0</v>
       </c>
-      <c r="P28" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="61"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P28" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="74"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1906,10 +1906,10 @@
       <c r="O29" s="21">
         <v>0</v>
       </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P29" s="73"/>
+      <c r="Q29" s="74"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1927,12 +1927,12 @@
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="14"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P30" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="74"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1951,7 +1951,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1964,19 +1964,19 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="62" t="s">
+      <c r="M32" s="65" t="s">
         <v>47</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="61"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P32" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="74"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1989,17 +1989,17 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="63"/>
+      <c r="M33" s="66"/>
       <c r="N33" s="11" t="s">
         <v>49</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="61"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P33" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="74"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2017,34 +2017,15 @@
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="53"/>
+      <c r="P34" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
+  <mergeCells count="39">
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="P25:Q25"/>
@@ -2061,6 +2042,27 @@
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="P24:Q24"/>
     <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2076,10 +2078,10 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="T28" sqref="T28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
@@ -2091,7 +2093,7 @@
     <col min="15" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2132,13 +2134,13 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="79" t="s">
+      <c r="O1" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2157,15 +2159,15 @@
       <c r="N2" s="37">
         <v>0</v>
       </c>
-      <c r="O2" s="83" t="s">
+      <c r="O2" s="89" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="83"/>
+      <c r="P2" s="89"/>
       <c r="Q2" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2184,15 +2186,15 @@
       <c r="N3" s="38">
         <v>0</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="O3" s="89" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="83"/>
+      <c r="P3" s="89"/>
       <c r="Q3" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2211,13 +2213,13 @@
       <c r="N4" s="39">
         <v>0</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="84"/>
-      <c r="Q4" s="84"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2230,21 +2232,21 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="92" t="s">
+      <c r="M5" s="87" t="s">
         <v>55</v>
       </c>
       <c r="N5" s="45">
         <v>0</v>
       </c>
-      <c r="O5" s="85" t="s">
+      <c r="O5" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="85"/>
+      <c r="P5" s="91"/>
       <c r="Q5" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2257,17 +2259,17 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="93"/>
+      <c r="M6" s="88"/>
       <c r="N6" s="33">
         <v>0</v>
       </c>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
+      <c r="O6" s="91"/>
+      <c r="P6" s="91"/>
       <c r="Q6" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2287,16 +2289,16 @@
         <f>SUM(N5,N6)</f>
         <v>0</v>
       </c>
-      <c r="O7" s="86" t="s">
+      <c r="O7" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="86"/>
+      <c r="P7" s="92"/>
       <c r="Q7" s="42">
         <f>SUM(Q5,Q6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2315,15 +2317,15 @@
       <c r="N8" s="34">
         <v>0</v>
       </c>
-      <c r="O8" s="87" t="s">
+      <c r="O8" s="93" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="87"/>
+      <c r="P8" s="93"/>
       <c r="Q8" s="46">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2342,15 +2344,15 @@
       <c r="N9" s="36">
         <v>0</v>
       </c>
-      <c r="O9" s="85" t="s">
+      <c r="O9" s="91" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="85"/>
+      <c r="P9" s="91"/>
       <c r="Q9" s="35">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2369,15 +2371,15 @@
       <c r="N10" s="36">
         <v>0</v>
       </c>
-      <c r="O10" s="85" t="s">
+      <c r="O10" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="85"/>
+      <c r="P10" s="91"/>
       <c r="Q10" s="43">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2396,13 +2398,13 @@
       <c r="N11" s="36">
         <v>0</v>
       </c>
-      <c r="O11" s="85" t="s">
+      <c r="O11" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="85"/>
+      <c r="P11" s="91"/>
       <c r="Q11" s="44"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2415,13 +2417,13 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="88"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="90"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="84"/>
+      <c r="P12" s="85"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2434,13 +2436,13 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="68"/>
-      <c r="N13" s="91"/>
-      <c r="O13" s="89"/>
-      <c r="P13" s="90"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="84"/>
+      <c r="P13" s="85"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2453,17 +2455,17 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="54" t="s">
+      <c r="M14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="55"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="70">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="71"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P14" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="72"/>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2483,12 +2485,12 @@
         <v>27</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="61"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P15" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="74"/>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2508,12 +2510,12 @@
         <v>29</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="61"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P16" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="74"/>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1"/>
       <c r="B17" s="32"/>
       <c r="C17" s="1"/>
@@ -2526,19 +2528,19 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="64" t="s">
+      <c r="M17" s="75" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="61"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P17" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="74"/>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2551,17 +2553,17 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="65"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="12"/>
-      <c r="P18" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="61"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P18" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="74"/>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2581,12 +2583,12 @@
         <v>29</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="P19" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="61"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P19" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="74"/>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2599,19 +2601,19 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="64" t="s">
+      <c r="M20" s="75" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O20" s="17"/>
-      <c r="P20" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="61"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P20" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="74"/>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2624,17 +2626,17 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="65"/>
+      <c r="M21" s="76"/>
       <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="17"/>
-      <c r="P21" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="61"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P21" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="74"/>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2654,12 +2656,12 @@
         <v>29</v>
       </c>
       <c r="O22" s="16"/>
-      <c r="P22" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="61"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P22" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="74"/>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2681,10 +2683,10 @@
       <c r="O23" s="25">
         <v>0</v>
       </c>
-      <c r="P23" s="60"/>
-      <c r="Q23" s="61"/>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P23" s="73"/>
+      <c r="Q23" s="74"/>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2702,12 +2704,12 @@
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="57"/>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P24" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="80"/>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2725,10 +2727,10 @@
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P25" s="79"/>
+      <c r="Q25" s="80"/>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2750,12 +2752,12 @@
       <c r="O26" s="25">
         <v>0</v>
       </c>
-      <c r="P26" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="59"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P26" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="82"/>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2777,12 +2779,12 @@
       <c r="O27" s="25">
         <v>0</v>
       </c>
-      <c r="P27" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="59"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P27" s="81">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="82"/>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2804,12 +2806,12 @@
       <c r="O28" s="26">
         <v>0</v>
       </c>
-      <c r="P28" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="61"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P28" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="74"/>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2831,10 +2833,10 @@
       <c r="O29" s="21">
         <v>0</v>
       </c>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="14"/>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P29" s="73"/>
+      <c r="Q29" s="74"/>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2852,12 +2854,12 @@
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="13">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="14"/>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P30" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="74"/>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2876,7 +2878,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2889,19 +2891,19 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="62" t="s">
+      <c r="M32" s="65" t="s">
         <v>47</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="61"/>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P32" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="74"/>
+    </row>
+    <row r="33" spans="1:17">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2914,17 +2916,17 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="63"/>
+      <c r="M33" s="66"/>
       <c r="N33" s="11" t="s">
         <v>49</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="61"/>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="P33" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="74"/>
+    </row>
+    <row r="34" spans="1:17">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2942,35 +2944,13 @@
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="53"/>
+      <c r="P34" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="78"/>
     </row>
   </sheetData>
-  <mergeCells count="37">
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
+  <mergeCells count="39">
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -2986,6 +2966,30 @@
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N5">

--- a/src/main/resources/hr/personalPayrollSample.xlsx
+++ b/src/main/resources/hr/personalPayrollSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3501EAA3-4667-441C-842D-E14AD492CD87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDFCD92-65F8-41DF-A242-FADF48D5D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
   </bookViews>
   <sheets>
     <sheet name="연봉제" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
     <numFmt numFmtId="189" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="190" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,6 +772,12 @@
     <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -788,12 +794,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1168,23 +1168,19 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
-    </sheetView>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="12" width="10.25" customWidth="1"/>
+    <col min="3" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1231,7 +1227,7 @@
       <c r="P1" s="54"/>
       <c r="Q1" s="54"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1254,7 +1250,7 @@
       <c r="P2" s="57"/>
       <c r="Q2" s="56"/>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -1281,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1308,7 +1304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1331,7 +1327,7 @@
       <c r="P5" s="53"/>
       <c r="Q5" s="5"/>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1358,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -1377,7 +1373,7 @@
       <c r="P7" s="61"/>
       <c r="Q7" s="62"/>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1404,7 +1400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -1431,7 +1427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -1458,7 +1454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -1477,7 +1473,7 @@
       <c r="P11" s="8"/>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1496,7 +1492,7 @@
       <c r="P12" s="65"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1515,7 +1511,7 @@
       <c r="P13" s="66"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -1538,7 +1534,7 @@
       </c>
       <c r="Q14" s="72"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -1558,12 +1554,12 @@
         <v>27</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="74"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="P15" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="76"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1583,12 +1579,12 @@
         <v>29</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="74"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="P16" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="76"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="32"/>
       <c r="C17" s="1"/>
@@ -1601,19 +1597,19 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="77" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="74"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="P17" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="76"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -1626,17 +1622,17 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="76"/>
+      <c r="M18" s="78"/>
       <c r="N18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="12"/>
-      <c r="P18" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="74"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="P18" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="76"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -1656,12 +1652,12 @@
         <v>29</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="P19" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="74"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="P19" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="76"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -1674,19 +1670,19 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="77" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O20" s="17"/>
-      <c r="P20" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="74"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="P20" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="76"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -1699,17 +1695,17 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="76"/>
+      <c r="M21" s="78"/>
       <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="17"/>
-      <c r="P21" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="74"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="P21" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="76"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -1729,12 +1725,12 @@
         <v>29</v>
       </c>
       <c r="O22" s="16"/>
-      <c r="P22" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="74"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="P22" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="76"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -1756,10 +1752,10 @@
       <c r="O23" s="25">
         <v>0</v>
       </c>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="74"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="P23" s="75"/>
+      <c r="Q23" s="76"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -1777,12 +1773,12 @@
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="80"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="P24" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="74"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -1800,10 +1796,10 @@
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="80"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="P25" s="73"/>
+      <c r="Q25" s="74"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -1830,7 +1826,7 @@
       </c>
       <c r="Q26" s="82"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -1857,7 +1853,7 @@
       </c>
       <c r="Q27" s="82"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -1879,12 +1875,12 @@
       <c r="O28" s="26">
         <v>0</v>
       </c>
-      <c r="P28" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="74"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="P28" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="76"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -1906,10 +1902,10 @@
       <c r="O29" s="21">
         <v>0</v>
       </c>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="74"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="P29" s="75"/>
+      <c r="Q29" s="76"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -1927,12 +1923,12 @@
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="74"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="P30" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="76"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -1951,7 +1947,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -1971,12 +1967,12 @@
         <v>48</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="74"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="P32" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="76"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -1994,12 +1990,12 @@
         <v>49</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="74"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="P33" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="76"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2017,10 +2013,10 @@
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="78"/>
+      <c r="P34" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -2078,22 +2074,20 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="11.125" customWidth="1"/>
-    <col min="3" max="4" width="17.375" customWidth="1"/>
-    <col min="5" max="6" width="11.125" customWidth="1"/>
-    <col min="7" max="7" width="13.125" customWidth="1"/>
-    <col min="8" max="12" width="10.25" customWidth="1"/>
+    <col min="3" max="4" width="20.125" customWidth="1"/>
+    <col min="5" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="17" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2140,7 +2134,7 @@
       <c r="P1" s="54"/>
       <c r="Q1" s="54"/>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2167,7 +2161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -2194,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2219,7 +2213,7 @@
       <c r="P4" s="90"/>
       <c r="Q4" s="90"/>
     </row>
-    <row r="5" spans="1:17">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -2246,7 +2240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -2269,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2298,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2325,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -2348,11 +2342,11 @@
         <v>16</v>
       </c>
       <c r="P9" s="91"/>
-      <c r="Q9" s="35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="Q9" s="43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -2379,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -2404,7 +2398,7 @@
       <c r="P11" s="91"/>
       <c r="Q11" s="44"/>
     </row>
-    <row r="12" spans="1:17">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -2423,7 +2417,7 @@
       <c r="P12" s="85"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" spans="1:17">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -2442,7 +2436,7 @@
       <c r="P13" s="85"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" spans="1:17">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -2465,7 +2459,7 @@
       </c>
       <c r="Q14" s="72"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
@@ -2485,12 +2479,12 @@
         <v>27</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="74"/>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="P15" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="76"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -2510,12 +2504,12 @@
         <v>29</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="74"/>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="P16" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="76"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="32"/>
       <c r="C17" s="1"/>
@@ -2528,19 +2522,19 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="75" t="s">
+      <c r="M17" s="77" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="74"/>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="P17" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="76"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -2553,17 +2547,17 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="76"/>
+      <c r="M18" s="78"/>
       <c r="N18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="12"/>
-      <c r="P18" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="74"/>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="P18" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="76"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -2583,12 +2577,12 @@
         <v>29</v>
       </c>
       <c r="O19" s="16"/>
-      <c r="P19" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="74"/>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="P19" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="76"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2601,19 +2595,19 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="75" t="s">
+      <c r="M20" s="77" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="O20" s="17"/>
-      <c r="P20" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="74"/>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="P20" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="76"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -2626,17 +2620,17 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="76"/>
+      <c r="M21" s="78"/>
       <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
       <c r="O21" s="17"/>
-      <c r="P21" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="74"/>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="P21" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="76"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -2656,12 +2650,12 @@
         <v>29</v>
       </c>
       <c r="O22" s="16"/>
-      <c r="P22" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="74"/>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="P22" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="76"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -2683,10 +2677,10 @@
       <c r="O23" s="25">
         <v>0</v>
       </c>
-      <c r="P23" s="73"/>
-      <c r="Q23" s="74"/>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="P23" s="75"/>
+      <c r="Q23" s="76"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2704,12 +2698,12 @@
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="19"/>
-      <c r="P24" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="80"/>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="P24" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="74"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
@@ -2727,10 +2721,10 @@
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="19"/>
-      <c r="P25" s="79"/>
-      <c r="Q25" s="80"/>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="P25" s="73"/>
+      <c r="Q25" s="74"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -2749,7 +2743,7 @@
       <c r="N26" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="25">
+      <c r="O26" s="26">
         <v>0</v>
       </c>
       <c r="P26" s="81">
@@ -2757,7 +2751,7 @@
       </c>
       <c r="Q26" s="82"/>
     </row>
-    <row r="27" spans="1:17">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
@@ -2776,7 +2770,7 @@
       <c r="N27" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="25">
+      <c r="O27" s="26">
         <v>0</v>
       </c>
       <c r="P27" s="81">
@@ -2784,7 +2778,7 @@
       </c>
       <c r="Q27" s="82"/>
     </row>
-    <row r="28" spans="1:17">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
@@ -2806,12 +2800,12 @@
       <c r="O28" s="26">
         <v>0</v>
       </c>
-      <c r="P28" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="74"/>
-    </row>
-    <row r="29" spans="1:17">
+      <c r="P28" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="76"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
@@ -2833,10 +2827,10 @@
       <c r="O29" s="21">
         <v>0</v>
       </c>
-      <c r="P29" s="73"/>
-      <c r="Q29" s="74"/>
-    </row>
-    <row r="30" spans="1:17">
+      <c r="P29" s="75"/>
+      <c r="Q29" s="76"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -2854,12 +2848,12 @@
       </c>
       <c r="N30" s="11"/>
       <c r="O30" s="22"/>
-      <c r="P30" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="74"/>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="P30" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="76"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
@@ -2878,7 +2872,7 @@
       <c r="P31" s="13"/>
       <c r="Q31" s="14"/>
     </row>
-    <row r="32" spans="1:17">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
@@ -2898,12 +2892,12 @@
         <v>48</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="74"/>
-    </row>
-    <row r="33" spans="1:17">
+      <c r="P32" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="76"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
@@ -2921,12 +2915,12 @@
         <v>49</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="74"/>
-    </row>
-    <row r="34" spans="1:17">
+      <c r="P33" s="75">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="76"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2944,10 +2938,10 @@
       </c>
       <c r="N34" s="23"/>
       <c r="O34" s="24"/>
-      <c r="P34" s="77">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="78"/>
+      <c r="P34" s="79">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="39">

--- a/src/main/resources/hr/personalPayrollSample.xlsx
+++ b/src/main/resources/hr/personalPayrollSample.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDFCD92-65F8-41DF-A242-FADF48D5D9A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5A99FC-0614-4AB4-A902-CDDD8830B4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
   </bookViews>
   <sheets>
     <sheet name="연봉제" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -592,12 +592,6 @@
     <xf numFmtId="177" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -709,6 +703,54 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -748,59 +790,26 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
@@ -818,21 +827,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="11" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1168,7 +1162,9 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1178,6 +1174,7 @@
     <col min="5" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="17" width="9" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -1221,11 +1218,11 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1240,15 +1237,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="55" t="s">
+      <c r="M2" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="55" t="s">
+      <c r="N2" s="70"/>
+      <c r="O2" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="57"/>
-      <c r="Q2" s="56"/>
+      <c r="P2" s="71"/>
+      <c r="Q2" s="70"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1269,10 +1266,10 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="O3" s="58" t="s">
+      <c r="O3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="58"/>
+      <c r="P3" s="72"/>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
@@ -1293,13 +1290,13 @@
       <c r="M4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="27">
-        <v>0</v>
-      </c>
-      <c r="O4" s="58" t="s">
+      <c r="N4" s="25">
+        <v>0</v>
+      </c>
+      <c r="O4" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="58"/>
+      <c r="P4" s="72"/>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
@@ -1323,8 +1320,8 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="52"/>
-      <c r="P5" s="53"/>
+      <c r="O5" s="66"/>
+      <c r="P5" s="67"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1340,17 +1337,17 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="29" t="s">
+      <c r="M6" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="N6" s="30">
-        <v>0</v>
-      </c>
-      <c r="O6" s="59" t="s">
+      <c r="N6" s="28">
+        <v>0</v>
+      </c>
+      <c r="O6" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="59"/>
-      <c r="Q6" s="30">
+      <c r="P6" s="73"/>
+      <c r="Q6" s="28">
         <v>0</v>
       </c>
     </row>
@@ -1367,11 +1364,11 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="62"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="75"/>
+      <c r="O7" s="75"/>
+      <c r="P7" s="75"/>
+      <c r="Q7" s="76"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1389,14 +1386,14 @@
       <c r="M8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="N8" s="28">
-        <v>0</v>
-      </c>
-      <c r="O8" s="58" t="s">
+      <c r="N8" s="26">
+        <v>0</v>
+      </c>
+      <c r="O8" s="72" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="28">
+      <c r="P8" s="72"/>
+      <c r="Q8" s="26">
         <v>0</v>
       </c>
     </row>
@@ -1419,10 +1416,10 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="58" t="s">
+      <c r="O9" s="72" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="58"/>
+      <c r="P9" s="72"/>
       <c r="Q9" s="4">
         <v>0</v>
       </c>
@@ -1440,17 +1437,17 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="29" t="s">
+      <c r="M10" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="31">
-        <v>0</v>
-      </c>
-      <c r="O10" s="59" t="s">
+      <c r="N10" s="29">
+        <v>0</v>
+      </c>
+      <c r="O10" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="31">
+      <c r="P10" s="73"/>
+      <c r="Q10" s="29">
         <v>0</v>
       </c>
     </row>
@@ -1486,10 +1483,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="70"/>
-      <c r="O12" s="63"/>
-      <c r="P12" s="65"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="77"/>
+      <c r="P12" s="60"/>
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1505,10 +1502,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="68"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="66"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="80"/>
+      <c r="O13" s="78"/>
+      <c r="P13" s="61"/>
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1524,15 +1521,15 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="69" t="s">
+      <c r="M14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="70"/>
+      <c r="N14" s="55"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="72"/>
+      <c r="P14" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="65"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -1554,10 +1551,10 @@
         <v>27</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="76"/>
+      <c r="P15" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="51"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -1572,21 +1569,21 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="76"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="51"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1597,17 +1594,17 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="77" t="s">
+      <c r="M17" s="62" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="76"/>
+      <c r="P17" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="51"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -1622,15 +1619,15 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="78"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="12"/>
-      <c r="P18" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="76"/>
+      <c r="P18" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="51"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -1645,17 +1642,17 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="76"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="51"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -1670,17 +1667,17 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="77" t="s">
+      <c r="M20" s="62" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="76"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="51"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -1695,15 +1692,15 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="78"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="76"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="51"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -1718,17 +1715,17 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="76"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="51"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -1746,14 +1743,12 @@
       <c r="M23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="25">
-        <v>0</v>
-      </c>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="76"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -1771,12 +1766,12 @@
       <c r="M24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="74"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="57"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -1795,9 +1790,9 @@
         <v>41</v>
       </c>
       <c r="N25" s="11"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="74"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -1815,16 +1810,14 @@
       <c r="M26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="25">
-        <v>0</v>
-      </c>
-      <c r="P26" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="82"/>
+      <c r="O26" s="23"/>
+      <c r="P26" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="59"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -1842,16 +1835,14 @@
       <c r="M27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="20" t="s">
+      <c r="N27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="25">
-        <v>0</v>
-      </c>
-      <c r="P27" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="82"/>
+      <c r="O27" s="23"/>
+      <c r="P27" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="59"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -1869,16 +1860,14 @@
       <c r="M28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="N28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="26">
-        <v>0</v>
-      </c>
-      <c r="P28" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="76"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="51"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -1896,14 +1885,12 @@
       <c r="M29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="20" t="s">
+      <c r="N29" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="21">
-        <v>0</v>
-      </c>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="76"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -1922,11 +1909,11 @@
         <v>46</v>
       </c>
       <c r="N30" s="11"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="76"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="51"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -1942,10 +1929,10 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="14"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -1960,17 +1947,17 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="60" t="s">
         <v>47</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="76"/>
+      <c r="P32" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="51"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -1985,15 +1972,15 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="66"/>
+      <c r="M33" s="61"/>
       <c r="N33" s="11" t="s">
         <v>49</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="76"/>
+      <c r="P33" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
@@ -2008,18 +1995,42 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="23" t="s">
+      <c r="M34" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="80"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M7:Q7"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P29:Q29"/>
     <mergeCell ref="P30:Q30"/>
     <mergeCell ref="P34:Q34"/>
@@ -2036,29 +2047,6 @@
     <mergeCell ref="P21:Q21"/>
     <mergeCell ref="P22:Q22"/>
     <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M7:Q7"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="O4:P4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2073,8 +2061,8 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2085,6 +2073,7 @@
     <col min="5" max="12" width="10.25" customWidth="1"/>
     <col min="13" max="14" width="12" customWidth="1"/>
     <col min="15" max="17" width="9" customWidth="1"/>
+    <col min="19" max="19" width="27" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -2128,11 +2117,11 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="54" t="s">
+      <c r="O1" s="68" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="54"/>
-      <c r="Q1" s="54"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2147,17 +2136,17 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="47" t="s">
+      <c r="M2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="37">
-        <v>0</v>
-      </c>
-      <c r="O2" s="89" t="s">
+      <c r="N2" s="35">
+        <v>0</v>
+      </c>
+      <c r="O2" s="81" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="89"/>
-      <c r="Q2" s="35">
+      <c r="P2" s="81"/>
+      <c r="Q2" s="33">
         <v>0</v>
       </c>
     </row>
@@ -2174,17 +2163,17 @@
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
-      <c r="M3" s="47" t="s">
+      <c r="M3" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="38">
-        <v>0</v>
-      </c>
-      <c r="O3" s="89" t="s">
+      <c r="N3" s="36">
+        <v>0</v>
+      </c>
+      <c r="O3" s="81" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="89"/>
-      <c r="Q3" s="35">
+      <c r="P3" s="81"/>
+      <c r="Q3" s="33">
         <v>0</v>
       </c>
     </row>
@@ -2201,17 +2190,17 @@
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="39">
-        <v>0</v>
-      </c>
-      <c r="O4" s="90" t="s">
+      <c r="N4" s="37">
+        <v>0</v>
+      </c>
+      <c r="O4" s="82" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="90"/>
-      <c r="Q4" s="90"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="82"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -2226,17 +2215,17 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="87" t="s">
+      <c r="M5" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="N5" s="45">
-        <v>0</v>
-      </c>
-      <c r="O5" s="91" t="s">
+      <c r="N5" s="43">
+        <v>0</v>
+      </c>
+      <c r="O5" s="83" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="91"/>
-      <c r="Q5" s="46">
+      <c r="P5" s="83"/>
+      <c r="Q5" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2253,13 +2242,13 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="88"/>
-      <c r="N6" s="33">
-        <v>0</v>
-      </c>
-      <c r="O6" s="91"/>
-      <c r="P6" s="91"/>
-      <c r="Q6" s="41">
+      <c r="M6" s="91"/>
+      <c r="N6" s="31">
+        <v>0</v>
+      </c>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="39">
         <v>0</v>
       </c>
     </row>
@@ -2276,18 +2265,15 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="49" t="s">
+      <c r="M7" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="N7" s="40">
-        <f>SUM(N5,N6)</f>
-        <v>0</v>
-      </c>
-      <c r="O7" s="92" t="s">
+      <c r="N7" s="38"/>
+      <c r="O7" s="84" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="92"/>
-      <c r="Q7" s="42">
+      <c r="P7" s="84"/>
+      <c r="Q7" s="40">
         <f>SUM(Q5,Q6)</f>
         <v>0</v>
       </c>
@@ -2305,17 +2291,17 @@
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="48" t="s">
+      <c r="M8" s="46" t="s">
         <v>57</v>
       </c>
-      <c r="N8" s="34">
-        <v>0</v>
-      </c>
-      <c r="O8" s="93" t="s">
+      <c r="N8" s="32">
+        <v>0</v>
+      </c>
+      <c r="O8" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="93"/>
-      <c r="Q8" s="46">
+      <c r="P8" s="85"/>
+      <c r="Q8" s="44">
         <v>0</v>
       </c>
     </row>
@@ -2332,17 +2318,17 @@
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="N9" s="36">
-        <v>0</v>
-      </c>
-      <c r="O9" s="91" t="s">
+      <c r="N9" s="34">
+        <v>0</v>
+      </c>
+      <c r="O9" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="43">
+      <c r="P9" s="83"/>
+      <c r="Q9" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2359,17 +2345,17 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="50" t="s">
+      <c r="M10" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="N10" s="36">
-        <v>0</v>
-      </c>
-      <c r="O10" s="91" t="s">
+      <c r="N10" s="34">
+        <v>0</v>
+      </c>
+      <c r="O10" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="91"/>
-      <c r="Q10" s="43">
+      <c r="P10" s="83"/>
+      <c r="Q10" s="41">
         <v>0</v>
       </c>
     </row>
@@ -2386,17 +2372,17 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="51" t="s">
+      <c r="M11" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="N11" s="36">
-        <v>0</v>
-      </c>
-      <c r="O11" s="91" t="s">
+      <c r="N11" s="34">
+        <v>0</v>
+      </c>
+      <c r="O11" s="83" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="44"/>
+      <c r="P11" s="83"/>
+      <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
@@ -2411,10 +2397,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="69"/>
-      <c r="N12" s="83"/>
-      <c r="O12" s="84"/>
-      <c r="P12" s="85"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="86"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="88"/>
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2430,10 +2416,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="84"/>
-      <c r="P13" s="85"/>
+      <c r="M13" s="79"/>
+      <c r="N13" s="89"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="88"/>
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2449,15 +2435,15 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="69" t="s">
+      <c r="M14" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="70"/>
+      <c r="N14" s="55"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="71">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="72"/>
+      <c r="P14" s="64">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="65"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -2479,10 +2465,10 @@
         <v>27</v>
       </c>
       <c r="O15" s="12"/>
-      <c r="P15" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="76"/>
+      <c r="P15" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="51"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
@@ -2497,21 +2483,21 @@
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="76"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="51"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
-      <c r="B17" s="32"/>
+      <c r="B17" s="30"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2522,17 +2508,17 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="77" t="s">
+      <c r="M17" s="62" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
         <v>31</v>
       </c>
       <c r="O17" s="12"/>
-      <c r="P17" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="76"/>
+      <c r="P17" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="51"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
@@ -2547,15 +2533,15 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="78"/>
+      <c r="M18" s="63"/>
       <c r="N18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="12"/>
-      <c r="P18" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="76"/>
+      <c r="P18" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="51"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
@@ -2570,17 +2556,17 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="15" t="s">
+      <c r="M19" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="N19" s="15" t="s">
+      <c r="N19" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="76"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="51"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
@@ -2595,17 +2581,17 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="77" t="s">
+      <c r="M20" s="62" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="O20" s="17"/>
-      <c r="P20" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="76"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="51"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -2620,15 +2606,15 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="78"/>
+      <c r="M21" s="63"/>
       <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="O21" s="17"/>
-      <c r="P21" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="76"/>
+      <c r="O21" s="15"/>
+      <c r="P21" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="51"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
@@ -2643,17 +2629,17 @@
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="15" t="s">
+      <c r="M22" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="N22" s="15" t="s">
+      <c r="N22" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="O22" s="16"/>
-      <c r="P22" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="76"/>
+      <c r="O22" s="14"/>
+      <c r="P22" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="51"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
@@ -2671,14 +2657,12 @@
       <c r="M23" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N23" s="18" t="s">
+      <c r="N23" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="O23" s="25">
-        <v>0</v>
-      </c>
-      <c r="P23" s="75"/>
-      <c r="Q23" s="76"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="50"/>
+      <c r="Q23" s="51"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
@@ -2696,12 +2680,12 @@
       <c r="M24" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="73">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="74"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="56">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="57"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -2720,9 +2704,9 @@
         <v>41</v>
       </c>
       <c r="N25" s="11"/>
-      <c r="O25" s="19"/>
-      <c r="P25" s="73"/>
-      <c r="Q25" s="74"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="56"/>
+      <c r="Q25" s="57"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -2740,16 +2724,14 @@
       <c r="M26" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N26" s="20" t="s">
+      <c r="N26" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O26" s="26">
-        <v>0</v>
-      </c>
-      <c r="P26" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="82"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="59"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -2767,16 +2749,14 @@
       <c r="M27" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="N27" s="20" t="s">
+      <c r="N27" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O27" s="26">
-        <v>0</v>
-      </c>
-      <c r="P27" s="81">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="82"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="58">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="59"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -2794,16 +2774,14 @@
       <c r="M28" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="N28" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O28" s="26">
-        <v>0</v>
-      </c>
-      <c r="P28" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="76"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="51"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
@@ -2821,14 +2799,12 @@
       <c r="M29" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="N29" s="20" t="s">
+      <c r="N29" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="O29" s="21">
-        <v>0</v>
-      </c>
-      <c r="P29" s="75"/>
-      <c r="Q29" s="76"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="50"/>
+      <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
@@ -2847,11 +2823,11 @@
         <v>46</v>
       </c>
       <c r="N30" s="11"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="76"/>
+      <c r="O30" s="20"/>
+      <c r="P30" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="51"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
@@ -2867,10 +2843,10 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="11"/>
-      <c r="N31" s="20"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="14"/>
+      <c r="N31" s="18"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="50"/>
+      <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
@@ -2885,17 +2861,17 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="65" t="s">
+      <c r="M32" s="60" t="s">
         <v>47</v>
       </c>
       <c r="N32" s="11" t="s">
         <v>48</v>
       </c>
       <c r="O32" s="12"/>
-      <c r="P32" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="76"/>
+      <c r="P32" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="51"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
@@ -2910,15 +2886,15 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="66"/>
+      <c r="M33" s="61"/>
       <c r="N33" s="11" t="s">
         <v>49</v>
       </c>
       <c r="O33" s="12"/>
-      <c r="P33" s="75">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="76"/>
+      <c r="P33" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
@@ -2933,18 +2909,42 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="23" t="s">
+      <c r="M34" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
-      <c r="P34" s="79">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="80"/>
+      <c r="N34" s="21"/>
+      <c r="O34" s="22"/>
+      <c r="P34" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
+  <mergeCells count="40">
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -2961,29 +2961,6 @@
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N5">

--- a/src/main/resources/hr/personalPayrollSample.xlsx
+++ b/src/main/resources/hr/personalPayrollSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Documents\GitHub\laquna-api\src\main\resources\hr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA5A99FC-0614-4AB4-A902-CDDD8830B4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76B7AA2-15BE-4C78-B02D-81A79BBBE521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{777929E5-9BDA-4853-98FE-990DA2306E30}"/>
   </bookViews>
   <sheets>
     <sheet name="연봉제" sheetId="1" r:id="rId1"/>
@@ -552,7 +552,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -709,10 +709,55 @@
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -721,22 +766,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -745,56 +784,29 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="4" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -809,24 +821,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1162,7 +1156,7 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1218,11 +1212,11 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -1237,15 +1231,15 @@
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="69" t="s">
+      <c r="M2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="70"/>
-      <c r="O2" s="69" t="s">
+      <c r="N2" s="56"/>
+      <c r="O2" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="70"/>
+      <c r="P2" s="57"/>
+      <c r="Q2" s="56"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
@@ -1266,10 +1260,10 @@
       <c r="N3" s="4">
         <v>0</v>
       </c>
-      <c r="O3" s="72" t="s">
+      <c r="O3" s="58" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="72"/>
+      <c r="P3" s="58"/>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
@@ -1293,10 +1287,10 @@
       <c r="N4" s="25">
         <v>0</v>
       </c>
-      <c r="O4" s="72" t="s">
+      <c r="O4" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="72"/>
+      <c r="P4" s="58"/>
       <c r="Q4" s="4">
         <v>0</v>
       </c>
@@ -1320,8 +1314,8 @@
       <c r="N5" s="4">
         <v>0</v>
       </c>
-      <c r="O5" s="66"/>
-      <c r="P5" s="67"/>
+      <c r="O5" s="52"/>
+      <c r="P5" s="53"/>
       <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1343,10 +1337,10 @@
       <c r="N6" s="28">
         <v>0</v>
       </c>
-      <c r="O6" s="73" t="s">
+      <c r="O6" s="59" t="s">
         <v>20</v>
       </c>
-      <c r="P6" s="73"/>
+      <c r="P6" s="59"/>
       <c r="Q6" s="28">
         <v>0</v>
       </c>
@@ -1364,11 +1358,11 @@
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="75"/>
-      <c r="P7" s="75"/>
-      <c r="Q7" s="76"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="62"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1389,10 +1383,10 @@
       <c r="N8" s="26">
         <v>0</v>
       </c>
-      <c r="O8" s="72" t="s">
+      <c r="O8" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="P8" s="72"/>
+      <c r="P8" s="58"/>
       <c r="Q8" s="26">
         <v>0</v>
       </c>
@@ -1416,10 +1410,10 @@
       <c r="N9" s="4">
         <v>0</v>
       </c>
-      <c r="O9" s="72" t="s">
+      <c r="O9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="P9" s="72"/>
+      <c r="P9" s="58"/>
       <c r="Q9" s="4">
         <v>0</v>
       </c>
@@ -1443,10 +1437,10 @@
       <c r="N10" s="29">
         <v>0</v>
       </c>
-      <c r="O10" s="73" t="s">
+      <c r="O10" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="73"/>
+      <c r="P10" s="59"/>
       <c r="Q10" s="29">
         <v>0</v>
       </c>
@@ -1483,10 +1477,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="77"/>
-      <c r="P12" s="60"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="70"/>
+      <c r="O12" s="63"/>
+      <c r="P12" s="65"/>
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1502,10 +1496,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="80"/>
-      <c r="O13" s="78"/>
-      <c r="P13" s="61"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="68"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="66"/>
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1521,15 +1515,15 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="54" t="s">
+      <c r="M14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="55"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="64">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="65"/>
+      <c r="P14" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="72"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -1594,7 +1588,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="62" t="s">
+      <c r="M17" s="75" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
@@ -1619,7 +1613,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="63"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="11" t="s">
         <v>32</v>
       </c>
@@ -1667,7 +1661,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="62" t="s">
+      <c r="M20" s="75" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
@@ -1692,7 +1686,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="63"/>
+      <c r="M21" s="76"/>
       <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
@@ -1768,10 +1762,10 @@
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="57"/>
+      <c r="P24" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="74"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -1791,8 +1785,8 @@
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="74"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -1814,10 +1808,10 @@
         <v>39</v>
       </c>
       <c r="O26" s="23"/>
-      <c r="P26" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="59"/>
+      <c r="P26" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="51"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -1839,10 +1833,10 @@
         <v>39</v>
       </c>
       <c r="O27" s="23"/>
-      <c r="P27" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="59"/>
+      <c r="P27" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="51"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -1947,7 +1941,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="60" t="s">
+      <c r="M32" s="65" t="s">
         <v>47</v>
       </c>
       <c r="N32" s="11" t="s">
@@ -1972,7 +1966,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="61"/>
+      <c r="M33" s="66"/>
       <c r="N33" s="11" t="s">
         <v>49</v>
       </c>
@@ -2000,13 +1994,37 @@
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="53"/>
+      <c r="P34" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="P25:Q25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P24:Q24"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="P19:Q19"/>
     <mergeCell ref="P31:Q31"/>
     <mergeCell ref="O5:P5"/>
     <mergeCell ref="O1:Q1"/>
@@ -2023,30 +2041,6 @@
     <mergeCell ref="P12:P13"/>
     <mergeCell ref="M13:N13"/>
     <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P24:Q24"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="P25:Q25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2061,7 +2055,7 @@
   </sheetPr>
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2117,11 +2111,11 @@
         <v>12</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="54" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
+      <c r="P1" s="54"/>
+      <c r="Q1" s="54"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -2142,10 +2136,10 @@
       <c r="N2" s="35">
         <v>0</v>
       </c>
-      <c r="O2" s="81" t="s">
+      <c r="O2" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="P2" s="81"/>
+      <c r="P2" s="85"/>
       <c r="Q2" s="33">
         <v>0</v>
       </c>
@@ -2169,10 +2163,10 @@
       <c r="N3" s="36">
         <v>0</v>
       </c>
-      <c r="O3" s="81" t="s">
+      <c r="O3" s="85" t="s">
         <v>62</v>
       </c>
-      <c r="P3" s="81"/>
+      <c r="P3" s="85"/>
       <c r="Q3" s="33">
         <v>0</v>
       </c>
@@ -2196,11 +2190,11 @@
       <c r="N4" s="37">
         <v>0</v>
       </c>
-      <c r="O4" s="82" t="s">
+      <c r="O4" s="86" t="s">
         <v>63</v>
       </c>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="82"/>
+      <c r="P4" s="86"/>
+      <c r="Q4" s="86"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -2215,16 +2209,16 @@
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="90" t="s">
+      <c r="M5" s="83" t="s">
         <v>55</v>
       </c>
       <c r="N5" s="43">
         <v>0</v>
       </c>
-      <c r="O5" s="83" t="s">
+      <c r="O5" s="87" t="s">
         <v>64</v>
       </c>
-      <c r="P5" s="83"/>
+      <c r="P5" s="87"/>
       <c r="Q5" s="44">
         <v>0</v>
       </c>
@@ -2242,12 +2236,12 @@
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="91"/>
+      <c r="M6" s="84"/>
       <c r="N6" s="31">
         <v>0</v>
       </c>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
       <c r="Q6" s="39">
         <v>0</v>
       </c>
@@ -2269,10 +2263,10 @@
         <v>56</v>
       </c>
       <c r="N7" s="38"/>
-      <c r="O7" s="84" t="s">
+      <c r="O7" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="P7" s="84"/>
+      <c r="P7" s="88"/>
       <c r="Q7" s="40">
         <f>SUM(Q5,Q6)</f>
         <v>0</v>
@@ -2297,10 +2291,10 @@
       <c r="N8" s="32">
         <v>0</v>
       </c>
-      <c r="O8" s="85" t="s">
+      <c r="O8" s="89" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="85"/>
+      <c r="P8" s="89"/>
       <c r="Q8" s="44">
         <v>0</v>
       </c>
@@ -2324,10 +2318,10 @@
       <c r="N9" s="34">
         <v>0</v>
       </c>
-      <c r="O9" s="83" t="s">
+      <c r="O9" s="87" t="s">
         <v>16</v>
       </c>
-      <c r="P9" s="83"/>
+      <c r="P9" s="87"/>
       <c r="Q9" s="41">
         <v>0</v>
       </c>
@@ -2351,10 +2345,10 @@
       <c r="N10" s="34">
         <v>0</v>
       </c>
-      <c r="O10" s="83" t="s">
+      <c r="O10" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="P10" s="83"/>
+      <c r="P10" s="87"/>
       <c r="Q10" s="41">
         <v>0</v>
       </c>
@@ -2378,10 +2372,10 @@
       <c r="N11" s="34">
         <v>0</v>
       </c>
-      <c r="O11" s="83" t="s">
+      <c r="O11" s="87" t="s">
         <v>66</v>
       </c>
-      <c r="P11" s="83"/>
+      <c r="P11" s="87"/>
       <c r="Q11" s="42"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2397,10 +2391,10 @@
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="86"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="88"/>
+      <c r="M12" s="69"/>
+      <c r="N12" s="79"/>
+      <c r="O12" s="80"/>
+      <c r="P12" s="81"/>
       <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,10 +2410,10 @@
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="79"/>
-      <c r="N13" s="89"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="88"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="82"/>
+      <c r="O13" s="80"/>
+      <c r="P13" s="81"/>
       <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2435,15 +2429,15 @@
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="54" t="s">
+      <c r="M14" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="N14" s="55"/>
+      <c r="N14" s="70"/>
       <c r="O14" s="10"/>
-      <c r="P14" s="64">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="65"/>
+      <c r="P14" s="71">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="72"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
@@ -2508,7 +2502,7 @@
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="62" t="s">
+      <c r="M17" s="75" t="s">
         <v>30</v>
       </c>
       <c r="N17" s="11" t="s">
@@ -2533,7 +2527,7 @@
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="63"/>
+      <c r="M18" s="76"/>
       <c r="N18" s="11" t="s">
         <v>32</v>
       </c>
@@ -2581,7 +2575,7 @@
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="62" t="s">
+      <c r="M20" s="75" t="s">
         <v>34</v>
       </c>
       <c r="N20" s="11" t="s">
@@ -2606,7 +2600,7 @@
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="63"/>
+      <c r="M21" s="76"/>
       <c r="N21" s="11" t="s">
         <v>36</v>
       </c>
@@ -2682,10 +2676,10 @@
       </c>
       <c r="N24" s="16"/>
       <c r="O24" s="17"/>
-      <c r="P24" s="56">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="57"/>
+      <c r="P24" s="73">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="74"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
@@ -2705,8 +2699,8 @@
       </c>
       <c r="N25" s="11"/>
       <c r="O25" s="17"/>
-      <c r="P25" s="56"/>
-      <c r="Q25" s="57"/>
+      <c r="P25" s="73"/>
+      <c r="Q25" s="74"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
@@ -2728,10 +2722,10 @@
         <v>39</v>
       </c>
       <c r="O26" s="24"/>
-      <c r="P26" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="59"/>
+      <c r="P26" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="51"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
@@ -2753,10 +2747,10 @@
         <v>39</v>
       </c>
       <c r="O27" s="24"/>
-      <c r="P27" s="58">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="59"/>
+      <c r="P27" s="50">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="51"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
@@ -2861,7 +2855,7 @@
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="60" t="s">
+      <c r="M32" s="65" t="s">
         <v>47</v>
       </c>
       <c r="N32" s="11" t="s">
@@ -2886,7 +2880,7 @@
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="61"/>
+      <c r="M33" s="66"/>
       <c r="N33" s="11" t="s">
         <v>49</v>
       </c>
@@ -2914,37 +2908,13 @@
       </c>
       <c r="N34" s="21"/>
       <c r="O34" s="22"/>
-      <c r="P34" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="53"/>
+      <c r="P34" s="77">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="O1:Q1"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:O13"/>
-    <mergeCell ref="P12:P13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="P14:Q14"/>
-    <mergeCell ref="P15:Q15"/>
-    <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="M17:M18"/>
-    <mergeCell ref="P17:Q17"/>
-    <mergeCell ref="P18:Q18"/>
-    <mergeCell ref="M32:M33"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="P19:Q19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="P20:Q20"/>
-    <mergeCell ref="P21:Q21"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="P23:Q23"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="P31:Q31"/>
     <mergeCell ref="P34:Q34"/>
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="O3:P3"/>
@@ -2961,6 +2931,30 @@
     <mergeCell ref="O9:P9"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="M32:M33"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="P19:Q19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="P21:Q21"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="P23:Q23"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="P14:Q14"/>
+    <mergeCell ref="P15:Q15"/>
+    <mergeCell ref="P16:Q16"/>
+    <mergeCell ref="M17:M18"/>
+    <mergeCell ref="P17:Q17"/>
+    <mergeCell ref="P18:Q18"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:O13"/>
+    <mergeCell ref="P12:P13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M5:M6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="N5">
